--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel-z-series-time-series.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/multi-channel-z-series-time-series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862F1F21-D41E-4AF9-BEA6-B5408F9242A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ABDAE9-27FA-46F5-83A3-7F9A678239D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="206">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="205">
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
@@ -98,15 +95,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -119,15 +107,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -158,18 +137,9 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -182,12 +152,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -249,58 +213,6 @@
     <t>pixelType:uint8</t>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>acquisitioMode</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -528,10 +440,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel:0</t>
   </si>
   <si>
@@ -785,6 +693,106 @@
   </si>
   <si>
     <t>bindata:bindata49</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1201,122 +1209,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1335,9 +1343,9 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1345,89 +1353,89 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1458,45 +1466,45 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1512,90 +1520,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1">
         <v>2</v>
@@ -1613,405 +1621,405 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2038,21 +2046,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2060,50 +2068,50 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2128,45 +2136,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -2188,7 +2196,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -2196,24 +2204,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2222,45 +2230,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>576</v>
@@ -2268,13 +2276,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1">
         <v>576</v>
@@ -2282,13 +2290,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1">
         <v>576</v>
@@ -2296,13 +2304,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1">
         <v>576</v>
@@ -2310,13 +2318,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>576</v>
@@ -2324,13 +2332,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1">
         <v>576</v>
@@ -2338,13 +2346,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1">
         <v>576</v>
@@ -2352,13 +2360,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1">
         <v>576</v>
@@ -2366,13 +2374,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>576</v>
@@ -2380,13 +2388,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1">
         <v>576</v>
@@ -2394,13 +2402,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1">
         <v>576</v>
@@ -2408,13 +2416,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1">
         <v>576</v>
@@ -2422,13 +2430,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1">
         <v>576</v>
@@ -2436,13 +2444,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1">
         <v>576</v>
@@ -2450,13 +2458,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1">
         <v>576</v>
@@ -2464,13 +2472,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1">
         <v>576</v>
@@ -2478,13 +2486,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1">
         <v>576</v>
@@ -2492,13 +2500,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1">
         <v>576</v>
@@ -2506,13 +2514,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="E23" s="1">
         <v>576</v>
@@ -2520,13 +2528,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1">
         <v>576</v>
@@ -2534,13 +2542,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C25" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1">
         <v>576</v>
@@ -2548,13 +2556,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1">
         <v>576</v>
@@ -2562,13 +2570,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1">
         <v>576</v>
@@ -2576,13 +2584,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1">
         <v>576</v>
@@ -2590,13 +2598,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E29" s="1">
         <v>576</v>
@@ -2604,13 +2612,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1">
         <v>576</v>
@@ -2618,13 +2626,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1">
         <v>576</v>
@@ -2632,13 +2640,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C32" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1">
         <v>576</v>
@@ -2646,13 +2654,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1">
         <v>576</v>
@@ -2660,13 +2668,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="E34" s="1">
         <v>576</v>
@@ -2674,13 +2682,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C35" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1">
         <v>576</v>
@@ -2688,13 +2696,13 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C36" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E36" s="1">
         <v>576</v>
@@ -2702,13 +2710,13 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E37" s="1">
         <v>576</v>
@@ -2716,13 +2724,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E38" s="1">
         <v>576</v>
@@ -2730,13 +2738,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C39" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E39" s="1">
         <v>576</v>
@@ -2744,13 +2752,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1">
         <v>576</v>
@@ -2758,13 +2766,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C41" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1">
         <v>576</v>
@@ -2772,13 +2780,13 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1">
         <v>576</v>
@@ -2786,13 +2794,13 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C43" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E43" s="1">
         <v>576</v>
@@ -2800,13 +2808,13 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1">
         <v>576</v>
@@ -2814,13 +2822,13 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E45" s="1">
         <v>576</v>
@@ -2828,13 +2836,13 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C46" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1">
         <v>576</v>
@@ -2842,13 +2850,13 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="C47" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E47" s="1">
         <v>576</v>
@@ -2856,13 +2864,13 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="C48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="E48" s="1">
         <v>576</v>
@@ -2870,13 +2878,13 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E49" s="1">
         <v>576</v>
@@ -2884,13 +2892,13 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="C50" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="E50" s="1">
         <v>576</v>
@@ -2898,13 +2906,13 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1">
         <v>576</v>
@@ -2912,13 +2920,13 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C52" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1">
         <v>576</v>
@@ -2926,13 +2934,13 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C53" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1">
         <v>576</v>
@@ -2940,13 +2948,13 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B54" s="1" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C54" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E54" s="1">
         <v>576</v>
